--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB3796-FA2F-43E5-B964-EF37193F0A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF2E5A-9684-4F15-BE6E-9D2E516EC719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37005" yWindow="2415" windowWidth="14400" windowHeight="7275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>2025-09-15</t>
   </si>
@@ -95,18 +95,33 @@
   </si>
   <si>
     <t>sonka</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -130,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -437,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -448,21 +464,12 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -470,16 +477,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -487,30 +494,33 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -518,16 +528,13 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -535,27 +542,30 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45918</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -563,16 +573,13 @@
         <v>45918</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -580,32 +587,38 @@
         <v>45918</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45922</v>
+        <v>45920</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -613,12 +626,23 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>45924</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF2E5A-9684-4F15-BE6E-9D2E516EC719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3E2AD-475C-4115-8372-0AAE12197721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
   <si>
     <t>2025-09-15</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,15 +467,84 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -506,7 +578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -523,7 +595,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -537,7 +609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -554,7 +626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -568,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45918</v>
       </c>
@@ -582,7 +654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45918</v>
       </c>
@@ -599,7 +671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45918</v>
       </c>
@@ -613,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45920</v>
       </c>
@@ -624,7 +696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45922</v>
       </c>
@@ -635,7 +707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45924</v>
       </c>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF3E2AD-475C-4115-8372-0AAE12197721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70B5CF-2F7D-4459-8FFA-F89844BE4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>2025-09-15</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +467,7 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -507,44 +507,8 @@
       <c r="M1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -578,7 +542,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -595,7 +559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -609,7 +573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -626,7 +590,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -640,7 +604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45918</v>
       </c>
@@ -654,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45918</v>
       </c>
@@ -671,7 +635,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45918</v>
       </c>
@@ -685,7 +649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45920</v>
       </c>
@@ -696,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45922</v>
       </c>
@@ -707,7 +671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45924</v>
       </c>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE70B5CF-2F7D-4459-8FFA-F89844BE4C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5971C-523D-4084-91FD-446502342C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>2025-09-15</t>
   </si>
@@ -58,9 +58,6 @@
     <t>alma</t>
   </si>
   <si>
-    <t>lazac</t>
-  </si>
-  <si>
     <t>sajt</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>tej</t>
   </si>
   <si>
-    <t>brokkoli</t>
-  </si>
-  <si>
     <t>paradicsom</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>food</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>ponty</t>
   </si>
 </sst>
 </file>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,219 +467,300 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>300</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>300</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>300</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
+      <c r="C6">
+        <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="C7">
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45918</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45918</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
+      <c r="C9">
+        <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>300</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45918</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+      <c r="C10">
+        <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45920</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45922</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>400</v>
+      </c>
+      <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45924</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
-        <v>22</v>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F5971C-523D-4084-91FD-446502342C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91594BEE-0920-4995-BCF2-D196951D726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>2025-09-15</t>
   </si>
@@ -456,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,7 +467,7 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -480,38 +480,32 @@
       <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="H1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -537,7 +531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -563,7 +557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -589,7 +583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -609,7 +603,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -635,7 +629,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -655,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>45918</v>
       </c>
@@ -675,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>45918</v>
       </c>
@@ -701,7 +695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>45918</v>
       </c>
@@ -721,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45920</v>
       </c>
@@ -735,7 +729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45922</v>
       </c>
@@ -749,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>45924</v>
       </c>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91594BEE-0920-4995-BCF2-D196951D726E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA10FC-39DA-4ABF-9F92-1464C6FA0BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-16</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>08:00</t>
   </si>
@@ -49,9 +43,6 @@
     <t>banán</t>
   </si>
   <si>
-    <t>csirke mell</t>
-  </si>
-  <si>
     <t>tojás</t>
   </si>
   <si>
@@ -104,6 +95,21 @@
   </si>
   <si>
     <t>ponty</t>
+  </si>
+  <si>
+    <t>zsömle</t>
+  </si>
+  <si>
+    <t>csirke</t>
+  </si>
+  <si>
+    <t>krumpli</t>
+  </si>
+  <si>
+    <t>hal</t>
+  </si>
+  <si>
+    <t>sertés</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,292 +475,346 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1">
+        <v>45914</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>200</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3" s="1">
+        <v>45914</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>200</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4" s="1">
+        <v>45915</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>100</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="A5" s="1">
+        <v>45916</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>1</v>
+      <c r="A6" s="1">
+        <v>45916</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>400</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
+      <c r="A7" s="1">
+        <v>45916</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7">
         <v>200</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>400</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>400</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>300</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>300</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45918</v>
+        <v>45917</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>300</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>300</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45920</v>
+        <v>45918</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45922</v>
+        <v>45918</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>400</v>
       </c>
       <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>400</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12">
+        <v>300</v>
+      </c>
+      <c r="H12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45924</v>
+        <v>45918</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>300</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>300</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/pandas/sajat_projekt/mit_ettem.xlsx
+++ b/pandas/sajat_projekt/mit_ettem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_kidob\_kidob\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA10FC-39DA-4ABF-9F92-1464C6FA0BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF7D568-5F8F-483E-B766-B7B7C6AB85C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
   <si>
     <t>08:00</t>
   </si>
@@ -465,12 +465,13 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -519,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -551,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -588,6 +589,18 @@
       <c r="H4" t="s">
         <v>17</v>
       </c>
+      <c r="I4">
+        <v>300</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>400</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -689,7 +702,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -715,7 +728,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -741,7 +754,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>45918</v>
+        <v>45920</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -767,7 +780,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>45918</v>
+        <v>45921</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -793,7 +806,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -815,6 +828,12 @@
       </c>
       <c r="H13" t="s">
         <v>27</v>
+      </c>
+      <c r="I13">
+        <v>300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
